--- a/dados/Lista de Exercícios - Complementares.xlsx
+++ b/dados/Lista de Exercícios - Complementares.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Ferreira\Dropbox\PC\Documents\GitHub\usp_mba\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Ferreira\Dropbox\PC\Documents\GitHub\Data-Sci-Analytics-MBA-USP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="856" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="856" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 1" sheetId="20" r:id="rId1"/>
@@ -1410,7 +1410,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1519,9 +1518,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1542,9 +1539,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1565,9 +1560,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1588,9 +1581,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1611,9 +1602,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1634,9 +1623,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-445C-407F-A3AD-1D5A70752943}"/>
                 </c:ext>
@@ -1936,6 +1923,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15463,7 +15451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -15689,7 +15677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16663,7 +16653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16901,7 +16893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17821,11 +17815,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:R6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="F36:G36"/>
@@ -17834,6 +17823,11 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M1:R6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
